--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="831" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="912" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="16" r:id="rId1"/>
@@ -1972,7 +1972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,6 +2006,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2287,7 +2293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,9 +2397,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2517,6 +2520,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6240,6 +6249,481 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4181475" y="4657725"/>
+          <a:ext cx="152400" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="6829425"/>
+          <a:ext cx="1343025" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="6829425"/>
+          <a:ext cx="6057900" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有缓存产线，工站的日志。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>runDbCmd:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LOADSTLOG:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工站</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LOG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.ClientId=LineId;OPNo;StNo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LineId;OPNo;StNo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["t"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"I"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>预设</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), "E"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Error </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "I" Info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "A" All</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回信息字段清单：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CTIME: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志时间</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LEVEL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志等级： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NORMAL,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> 1 WARNING, 2 ERROR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>CONTENT: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9167,16 +9651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9185,7 +9669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9648825" y="866775"/>
+          <a:off x="10315575" y="809625"/>
           <a:ext cx="3724275" cy="3829050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9354,6 +9838,238 @@
             </a:rPr>
             <a:t>请求数量，未输入不传递</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行完毕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需要刷新本界面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>因为请求数量会发生变化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 所以此处要注意如何区分输入的请求数量和后台返回的请求数量的问题</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果剩余数量</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
@@ -9384,8 +10100,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
@@ -9396,8 +10112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="1485900"/>
-          <a:ext cx="800100" cy="276225"/>
+          <a:off x="8734425" y="1485900"/>
+          <a:ext cx="1257300" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9446,13 +10162,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
@@ -9463,8 +10179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="1800225"/>
-          <a:ext cx="800100" cy="276225"/>
+          <a:off x="8743949" y="1800225"/>
+          <a:ext cx="1266826" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9513,15 +10229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9530,8 +10246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="2190750"/>
-          <a:ext cx="800100" cy="276225"/>
+          <a:off x="8734424" y="2171700"/>
+          <a:ext cx="1266825" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17578,221 +18294,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>工站</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>LOG</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.ClientId=LineId;OPNo;StNo</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.EntityId=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LineId;OPNo;StNo</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["t"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"I"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>预设</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>), "E"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Error </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "I" Info</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "A" All</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -20056,16 +20557,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -20073,16 +20574,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -20173,16 +20674,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -20190,16 +20691,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -20656,7 +21157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -20670,17 +21171,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="9"/>
       <c r="N2" s="7"/>
     </row>
@@ -20688,15 +21189,15 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="45"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="9"/>
       <c r="N3" s="7"/>
     </row>
@@ -20704,15 +21205,15 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="10" t="s">
         <v>9</v>
       </c>
@@ -20737,35 +21238,35 @@
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -21014,79 +21515,79 @@
       <c r="N22" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -21121,7 +21622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21154,38 +21657,38 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="H7" s="63" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="H7" s="62" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="H8" s="64"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="H9" s="64"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="H10" s="64"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -21196,12 +21699,12 @@
       <c r="B15" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>378</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="28" t="s">
         <v>379</v>
       </c>
@@ -21213,10 +21716,10 @@
       <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
@@ -21224,10 +21727,10 @@
       <c r="B17" s="28">
         <v>2</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
@@ -21235,10 +21738,10 @@
       <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
@@ -21288,32 +21791,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -21321,34 +21824,34 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -21392,32 +21895,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -21425,34 +21928,34 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -21496,32 +21999,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -21534,34 +22037,34 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
@@ -21626,17 +22129,17 @@
       <c r="B9" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="34"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="34" t="s">
@@ -21671,34 +22174,34 @@
       <c r="F14" s="34"/>
     </row>
     <row r="17" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -21793,20 +22296,20 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
@@ -21815,32 +22318,32 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -21860,16 +22363,16 @@
       <c r="N5" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F10" s="2"/>
@@ -21882,16 +22385,16 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F14" s="2"/>
@@ -21904,21 +22407,21 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="2"/>
@@ -21931,74 +22434,74 @@
       <c r="H20" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="51"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="51"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22018,10 +22521,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22033,12 +22536,12 @@
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>462</v>
       </c>
@@ -22046,18 +22549,18 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26" t="s">
         <v>265</v>
       </c>
@@ -22083,11 +22586,12 @@
       <c r="J8" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="76" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="77"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -22095,11 +22599,11 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -22107,11 +22611,11 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -22119,11 +22623,11 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>358</v>
       </c>
@@ -22131,6 +22635,9 @@
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K8:L8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -22190,16 +22697,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -22207,16 +22714,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -22259,7 +22766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -22307,16 +22814,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -22324,16 +22831,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -22401,32 +22908,32 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -22435,37 +22942,37 @@
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="H21" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -22513,32 +23020,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -22547,37 +23054,37 @@
     <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="H21" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -22611,40 +23118,40 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
@@ -22731,82 +23238,82 @@
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23443,18 +23950,18 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
@@ -23463,32 +23970,32 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -23508,419 +24015,419 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="39"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E44" s="39"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C45" s="17"/>
-      <c r="E45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E46" s="39"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C47" s="17"/>
-      <c r="E47" s="39"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C48" s="18"/>
-      <c r="E48" s="39"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C49" s="18"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E50" s="39"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E51" s="39"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E52" s="39"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E53" s="39"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C54" s="17"/>
-      <c r="E54" s="39"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E55" s="39"/>
+      <c r="E55" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -24499,7 +25006,7 @@
       <c r="B3" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -24508,7 +25015,7 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
@@ -24528,7 +25035,7 @@
       <c r="B5" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -24542,7 +25049,7 @@
       <c r="B6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
       <c r="D6" t="s">
         <v>161</v>
       </c>
@@ -24560,7 +25067,7 @@
       <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" t="s">
         <v>46</v>
       </c>
@@ -24572,7 +25079,7 @@
       <c r="B8" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="39"/>
       <c r="D8" t="s">
         <v>161</v>
       </c>
@@ -25260,13 +25767,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E13" s="22" t="s">
@@ -25941,7 +26448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -25956,17 +26463,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="9"/>
       <c r="N2" s="7"/>
     </row>
@@ -25974,15 +26481,15 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="45"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="9"/>
       <c r="N3" s="7"/>
     </row>
@@ -25990,15 +26497,15 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
@@ -26083,132 +26590,132 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
@@ -26307,79 +26814,79 @@
       <c r="N22" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -26440,12 +26947,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>443</v>
       </c>
     </row>
@@ -26626,7 +27133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -26718,7 +27225,7 @@
       <c r="I11" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="30" t="s">
         <v>341</v>
       </c>
@@ -26749,7 +27256,7 @@
       <c r="I12" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="J12" s="41"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="30" t="s">
         <v>342</v>
       </c>
@@ -26765,7 +27272,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E13" s="30"/>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>437</v>
       </c>
       <c r="G13" s="30"/>
@@ -26786,7 +27293,7 @@
       <c r="G15" t="s">
         <v>440</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>437</v>
       </c>
       <c r="I15" t="s">

--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="732" firstSheet="27" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="16" r:id="rId1"/>
@@ -15258,7 +15258,155 @@
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>状态说明</a:t>
+            <a:t>状态说明  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>I </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>黄色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>S </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>灰色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>R </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>绿色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>F </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>红色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>M </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>棕色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>棕色 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>STATINFO:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>状态的中文说明</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN">
             <a:effectLst/>
@@ -26245,7 +26393,7 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -28531,7 +28679,7 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F50" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
@@ -29224,7 +29372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>

--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="732" firstSheet="27" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="484">
   <si>
     <t>帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1852,18 +1852,6 @@
   </si>
   <si>
     <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ROLID FROM HR_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLEID/ROLEID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1906,6 +1894,10 @@
   工单查询
   BOM查询
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXTBOX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3547,6 +3539,396 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="4229100"/>
+          <a:ext cx="5200650" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743699" y="6305549"/>
+          <a:ext cx="3629026" cy="4819651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在每个页面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LOAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过程里面，需要验证当前帐号的权限</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(RWX)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GETPERM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上级菜单项</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>APID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，如果无法获取，可以不传入）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.ServerId="config"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.UserId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前帐号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["modid"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上级菜单项</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>APID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，如果无法获取，可以不传入）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["entid"]=APID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["uid"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当前帐号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15343,6 +15725,42 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>棕色 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 预设颜色</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
@@ -25710,7 +26128,7 @@
   </sheetPr>
   <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B26"/>
     </sheetView>
   </sheetViews>
@@ -25790,7 +26208,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="47" t="s">
@@ -28679,7 +29097,7 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
@@ -29014,7 +29432,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -29033,7 +29451,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -29052,7 +29470,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -29069,14 +29487,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -29359,7 +29777,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -29926,7 +30344,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30243,24 +30661,19 @@
         <v>475</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="F24" t="s">
-        <v>481</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E24" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">

--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="858" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7830" tabRatio="858" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="16" r:id="rId1"/>
@@ -28,32 +28,33 @@
     <sheet name="生产线操作_员工登出" sheetId="27" r:id="rId19"/>
     <sheet name="生产线操作_停止工单" sheetId="25" state="hidden" r:id="rId20"/>
     <sheet name="产线操作_上料" sheetId="30" r:id="rId21"/>
-    <sheet name="仓库操作" sheetId="10" r:id="rId22"/>
-    <sheet name="工站操作" sheetId="7" r:id="rId23"/>
-    <sheet name="工站操作_生产申报" sheetId="28" r:id="rId24"/>
-    <sheet name="工站操作_不良申报" sheetId="29" r:id="rId25"/>
-    <sheet name="工站操作_报废" sheetId="38" r:id="rId26"/>
-    <sheet name="工站操作_返工" sheetId="39" r:id="rId27"/>
-    <sheet name="工站操作_缺料请求" sheetId="31" r:id="rId28"/>
-    <sheet name="工站操作_员工登入" sheetId="32" r:id="rId29"/>
-    <sheet name="工站操作_员工登出" sheetId="33" r:id="rId30"/>
-    <sheet name="工站操作_标签 补打" sheetId="35" r:id="rId31"/>
-    <sheet name="工站操作_打印标签" sheetId="34" r:id="rId32"/>
-    <sheet name="看板" sheetId="4" r:id="rId33"/>
-    <sheet name="追溯查询" sheetId="8" r:id="rId34"/>
-    <sheet name="报表_工单查询" sheetId="36" r:id="rId35"/>
-    <sheet name="报表_生产统计" sheetId="41" r:id="rId36"/>
-    <sheet name="报表_生产效率分析" sheetId="42" r:id="rId37"/>
-    <sheet name="报表_工时统计" sheetId="43" r:id="rId38"/>
-    <sheet name="报表_工艺分析" sheetId="44" r:id="rId39"/>
-    <sheet name="报表_产能分析" sheetId="46" r:id="rId40"/>
+    <sheet name="生产线操作_报废" sheetId="38" r:id="rId22"/>
+    <sheet name="生产线操作_降级" sheetId="47" r:id="rId23"/>
+    <sheet name="生产线操作_返工" sheetId="39" r:id="rId24"/>
+    <sheet name="仓库操作_发料解除警报" sheetId="10" r:id="rId25"/>
+    <sheet name="工站操作" sheetId="7" r:id="rId26"/>
+    <sheet name="工站操作_生产申报" sheetId="28" r:id="rId27"/>
+    <sheet name="工站操作_不良申报" sheetId="29" r:id="rId28"/>
+    <sheet name="工站操作_缺料请求" sheetId="31" r:id="rId29"/>
+    <sheet name="工站操作_员工登入" sheetId="32" r:id="rId30"/>
+    <sheet name="工站操作_员工登出" sheetId="33" r:id="rId31"/>
+    <sheet name="工站操作_标签 补打" sheetId="35" r:id="rId32"/>
+    <sheet name="工站操作_打印标签" sheetId="34" r:id="rId33"/>
+    <sheet name="看板" sheetId="4" r:id="rId34"/>
+    <sheet name="追溯查询" sheetId="8" r:id="rId35"/>
+    <sheet name="报表_工单查询" sheetId="36" r:id="rId36"/>
+    <sheet name="报表_生产统计" sheetId="41" r:id="rId37"/>
+    <sheet name="报表_生产效率分析" sheetId="42" r:id="rId38"/>
+    <sheet name="报表_工时统计" sheetId="43" r:id="rId39"/>
+    <sheet name="报表_工艺分析" sheetId="44" r:id="rId40"/>
+    <sheet name="报表_产能分析" sheetId="46" r:id="rId41"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="520">
   <si>
     <t>帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2060,6 +2061,14 @@
   </si>
   <si>
     <t>ISS_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目的工单 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降级代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2739,27 +2748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,6 +2770,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3507,6 +3516,52 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["root"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>决定取的根节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -6608,6 +6663,2082 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4972050" y="3114675"/>
+          <a:ext cx="781050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="3467100"/>
+          <a:ext cx="2733675" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>正常情况是扫码回车，扫描报废原因代码回车，完成后自动调用。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RWK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>扫描的条码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["rwk"]="S"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["code"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>选定报废代码</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="1952624"/>
+          <a:ext cx="4276725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5000625" y="2152650"/>
+          <a:ext cx="781050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="2238374"/>
+          <a:ext cx="5219700" cy="800101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GETNGCODE,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>传入：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.ClientId=LineID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["t"]="S"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CODE, Description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>键值对 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(Response.ReturnData)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>报废代码不能为空</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4962525" y="1571626"/>
+          <a:ext cx="1514475" cy="466724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="1409699"/>
+          <a:ext cx="5219700" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>如果可以，最好做成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>COMBOBOX,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可以扫描输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可以下拉</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4972050" y="3943351"/>
+          <a:ext cx="781050" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="3810000"/>
+          <a:ext cx="3857625" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>正常情况是扫码回车，扫描不良原因代码回车，完成后自动调用。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DownGrade</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>扫描的序列号条码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["code"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所选的降级代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["towo"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>目的工单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5000625" y="2152650"/>
+          <a:ext cx="781050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="2238375"/>
+          <a:ext cx="5219700" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GETNGCODE,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>传入：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.ClientId=LineID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["t"]="D"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CODE, Description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>键值对 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(Response.ReturnData)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2867024"/>
+          <a:ext cx="4276725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4933951" y="3228975"/>
+          <a:ext cx="1514474" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="3047999"/>
+          <a:ext cx="5219700" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前生产线所有工序，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GETLINEINFO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>WOLIST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表获取工单号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>描述</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2133599"/>
+          <a:ext cx="4276725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4972050" y="3943351"/>
+          <a:ext cx="781050" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="3810000"/>
+          <a:ext cx="3857625" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>正常情况是扫码回车，扫描不良原因代码回车，完成后自动调用。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RWK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["rwk"]="0";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["code"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原因代码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["op"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>目的工序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="1952624"/>
+          <a:ext cx="4276725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5000625" y="2152650"/>
+          <a:ext cx="781050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="2238375"/>
+          <a:ext cx="5219700" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GETNGCODE,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>传入：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.ClientId=LineID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["t"]="R"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CODE, Description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>键值对 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(Response.ReturnData)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4962525" y="1571626"/>
+          <a:ext cx="1514475" cy="466724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="1409699"/>
+          <a:ext cx="5219700" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>如果可以，最好做成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>COMBOBOX,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可以扫描输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可以下拉</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2867024"/>
+          <a:ext cx="4276725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4933951" y="3228975"/>
+          <a:ext cx="1514474" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="3047999"/>
+          <a:ext cx="5219700" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前生产线所有工序，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SELECT L_OPNO,DISPLAYNAME FROM ENG_LINEOP WHERE LINENAME=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前产线代码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7980,7 +10111,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8539,7 +10670,136 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>RUNDBCMD:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>GETUSRLNSTS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传递参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>request.parameters["uid"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>当前账号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>request.ClientId=LineID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返回数据集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TABLENAME=STLIST </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个字段，分别为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>stno, opno, description</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12853,7 +15113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13136,7 +15396,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13737,30 +15997,158 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="1219200"/>
+          <a:ext cx="628650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1209675"/>
+          <a:ext cx="676275" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>载入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4972050" y="3114675"/>
-          <a:ext cx="781050" cy="142875"/>
+        <a:xfrm flipH="1">
+          <a:off x="11010900" y="371475"/>
+          <a:ext cx="1400176" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13788,26 +16176,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743575" y="3467100"/>
-          <a:ext cx="2733675" cy="1543050"/>
+          <a:off x="10153650" y="209549"/>
+          <a:ext cx="2619375" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13843,78 +16231,46 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>正常情况是扫码回车，扫描报废原因代码回车，完成后自动调用。</a:t>
+            <a:t>简化界面，不设置主子表。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我后台保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可以考虑用请求指令模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存完成</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RWK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.EntityId=</a:t>
-          </a:r>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>扫描的条码</a:t>
+            <a:t>虽然不是主子表，要注意锁定关联字段，保证主子关系</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["rwk"]="S"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["code"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>选定报废代码</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -13923,83 +16279,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="1952624"/>
-          <a:ext cx="4276725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5000625" y="2152650"/>
-          <a:ext cx="781050" cy="142875"/>
+          <a:off x="2762251" y="1323975"/>
+          <a:ext cx="1743074" cy="300037"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14027,26 +16330,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848350" y="2238374"/>
-          <a:ext cx="5219700" cy="800101"/>
+          <a:off x="4505325" y="933450"/>
+          <a:ext cx="2619375" cy="1381124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14082,17 +16385,112 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>指令</a:t>
+            <a:t>可以请求指令</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>GETNGCODE,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>传入：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RUNDBCMD: SVBOMH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Client=Null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>料号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["pn"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>料号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["desc"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["rt"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工艺路线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -14113,8 +16511,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.ClientId=LineID;OPNo;STNO  </a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["spec"]=</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -14126,46 +16532,14 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["t"]="S"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CODE, Description</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>键值对 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(Response.ReturnData)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>报废代码不能为空</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>工艺参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14173,26 +16547,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4962525" y="1571626"/>
-          <a:ext cx="1514475" cy="466724"/>
+          <a:off x="876300" y="504825"/>
+          <a:ext cx="7086600" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14220,26 +16594,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4333875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6953250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="1409699"/>
-          <a:ext cx="5219700" cy="714375"/>
+          <a:off x="7534275" y="171450"/>
+          <a:ext cx="2619375" cy="1381124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14275,29 +16649,69 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>如果可以，最好做成</a:t>
+            <a:t>表结构：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>COMBOBOX,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可以扫描输入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可以下拉</a:t>
+            <a:t>ENG_BOMHEADER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     PARTNO,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 料号</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     DESCRIPTION,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 名称</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     RT_NAME,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 工艺路线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     DEFAULT_CONFNAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，工艺参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表结构：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ENG_BOMDETAIL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14306,794 +16720,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4972050" y="3943351"/>
-          <a:ext cx="781050" cy="314324"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5743575" y="3810000"/>
-          <a:ext cx="3857625" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>正常情况是扫码回车，扫描不良原因代码回车，完成后自动调用。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RWK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["rwk"]="0";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["code"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>原因代码</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["op"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>目的工序</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="1952624"/>
-          <a:ext cx="4276725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5000625" y="2152650"/>
-          <a:ext cx="781050" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5848350" y="2238375"/>
-          <a:ext cx="5219700" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>GETNGCODE,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>传入：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.ClientId=LineID;OPNo;STNO  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["t"]="R"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CODE, Description</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>键值对 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(Response.ReturnData)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4962525" y="1571626"/>
-          <a:ext cx="1514475" cy="466724"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6496050" y="1409699"/>
-          <a:ext cx="5219700" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>如果可以，最好做成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>COMBOBOX,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可以扫描输入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可以下拉</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="2867024"/>
-          <a:ext cx="4276725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1247776</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4933951" y="3228975"/>
-          <a:ext cx="1514474" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="3047999"/>
-          <a:ext cx="5219700" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>当前生产线所有工序，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SELECT L_OPNO,DISPLAYNAME FROM ENG_LINEOP WHERE LINENAME=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>当前产线代码</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15253,7 +16880,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Request.Parameters["compn"]=</a:t>
+            <a:t>Request.Parameters["comppn"]=</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -15924,730 +17551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="1219200"/>
-          <a:ext cx="628650" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>保存</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="1209675"/>
-          <a:ext cx="676275" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>载入</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11010900" y="371475"/>
-          <a:ext cx="1400176" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10153650" y="209549"/>
-          <a:ext cx="2619375" cy="1857375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>简化界面，不设置主子表。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>我后台保存</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>可以考虑用请求指令模式</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>保存完成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>虽然不是主子表，要注意锁定关联字段，保证主子关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2762251" y="1323975"/>
-          <a:ext cx="1743074" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3924300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4505325" y="933450"/>
-          <a:ext cx="2619375" cy="1381124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>可以请求指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RUNDBCMD: SVBOMH</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Client=Null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.EntityId=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>料号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["pn"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>料号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["desc"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>名称</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["rt"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>工艺路线</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["spec"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>工艺参数</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4762500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="876300" y="504825"/>
-          <a:ext cx="7086600" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4333875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6953250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="171450"/>
-          <a:ext cx="2619375" cy="1381124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>表结构：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ENG_BOMHEADER</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     PARTNO,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 料号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     DESCRIPTION,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 名称</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     RT_NAME,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 工艺路线</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     DEFAULT_CONFNAME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，工艺参数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>表结构：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ENG_BOMDETAIL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16716,7 +17620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16788,7 +17692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28898,7 +29802,7 @@
   </sheetPr>
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -30018,7 +30922,7 @@
   </sheetPr>
   <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B26"/>
     </sheetView>
   </sheetViews>
@@ -30921,12 +31825,347 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:F29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="68"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:F10"/>
+    <mergeCell ref="B21:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:F33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="68"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:F10"/>
+    <mergeCell ref="B27:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:F33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="68"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="68"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:F10"/>
+    <mergeCell ref="B27:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30952,7 +32191,7 @@
       <c r="A3" t="s">
         <v>455</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>493</v>
       </c>
       <c r="C3" t="s">
@@ -30960,16 +32199,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="66"/>
+      <c r="B4" s="74"/>
       <c r="C4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="66"/>
+      <c r="B5" s="74"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="67"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -31119,14 +32358,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -31140,7 +32379,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="76" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="50"/>
@@ -31207,35 +32446,35 @@
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -31587,7 +32826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -31644,7 +32883,7 @@
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
       <c r="F8" s="61"/>
-      <c r="H8" s="70"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="61"/>
@@ -31652,7 +32891,7 @@
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
-      <c r="H9" s="70"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="61"/>
@@ -31660,7 +32899,7 @@
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
-      <c r="H10" s="70"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -31674,8 +32913,8 @@
       <c r="C15" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="64"/>
       <c r="G15" s="28" t="s">
         <v>361</v>
@@ -31738,7 +32977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -31746,7 +32985,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31766,32 +33005,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -31845,235 +33084,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:F29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-    </row>
-    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="76"/>
-    </row>
-    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="76"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:F10"/>
-    <mergeCell ref="B21:F24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:F33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-    </row>
-    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="76"/>
-    </row>
-    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="76"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:F10"/>
-    <mergeCell ref="B27:F30"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -32241,126 +33259,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A2:K28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E12" s="32" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E16" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I23" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" t="s">
-        <v>345</v>
-      </c>
-      <c r="K23" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="J25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E17:H18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32599,6 +33497,126 @@
   </sheetPr>
   <dimension ref="A2:K28"/>
   <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E12" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E16" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+      <c r="K23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E17:H18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:K28"/>
+  <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
@@ -32712,7 +33730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -32744,32 +33762,32 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -32831,7 +33849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -32859,32 +33877,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="76"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -32946,7 +33964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -33168,7 +34186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -33242,7 +34260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -33260,7 +34278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -33273,25 +34291,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33624,6 +34623,25 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19320" windowHeight="7830" tabRatio="906" firstSheet="29" activeTab="38"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19320" windowHeight="7830" tabRatio="906" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="16" r:id="rId1"/>
@@ -30,35 +30,36 @@
     <sheet name="产线操作_上料" sheetId="30" r:id="rId21"/>
     <sheet name="生产线操作_报废" sheetId="38" r:id="rId22"/>
     <sheet name="生产线操作_降级" sheetId="47" r:id="rId23"/>
-    <sheet name="生产线操作_关联ID及组件解绑" sheetId="51" r:id="rId24"/>
-    <sheet name="生产线操作_返工" sheetId="39" r:id="rId25"/>
-    <sheet name="仓库操作_发料解除警报" sheetId="10" r:id="rId26"/>
-    <sheet name="工站操作" sheetId="7" r:id="rId27"/>
-    <sheet name="工站操作_生产申报" sheetId="28" r:id="rId28"/>
-    <sheet name="工站操作_不良申报" sheetId="29" r:id="rId29"/>
-    <sheet name="工站操作_缺料请求" sheetId="31" r:id="rId30"/>
-    <sheet name="工站操作_员工登入" sheetId="32" r:id="rId31"/>
-    <sheet name="工站操作_员工登出" sheetId="33" r:id="rId32"/>
-    <sheet name="工站操作_标签 补打" sheetId="35" r:id="rId33"/>
-    <sheet name="工站操作_打印标签" sheetId="34" r:id="rId34"/>
-    <sheet name="看板" sheetId="50" r:id="rId35"/>
-    <sheet name="看板_bak" sheetId="4" r:id="rId36"/>
-    <sheet name="追溯查询" sheetId="8" r:id="rId37"/>
-    <sheet name="报表_工单查询" sheetId="36" r:id="rId38"/>
-    <sheet name="报表_生产统计" sheetId="41" r:id="rId39"/>
-    <sheet name="报表_生产效率分析" sheetId="42" r:id="rId40"/>
-    <sheet name="报表_工时统计" sheetId="43" r:id="rId41"/>
-    <sheet name="报表_工艺分析" sheetId="44" r:id="rId42"/>
-    <sheet name="报表_产能分析" sheetId="46" r:id="rId43"/>
-    <sheet name="安灯工站操作" sheetId="48" state="hidden" r:id="rId44"/>
-    <sheet name="专家系统配置" sheetId="49" r:id="rId45"/>
+    <sheet name="生产线操作_不良品子件处理" sheetId="52" r:id="rId24"/>
+    <sheet name="生产线操作_关联ID及组件解绑" sheetId="51" r:id="rId25"/>
+    <sheet name="生产线操作_返工" sheetId="39" r:id="rId26"/>
+    <sheet name="仓库操作_发料解除警报" sheetId="10" r:id="rId27"/>
+    <sheet name="工站操作" sheetId="7" r:id="rId28"/>
+    <sheet name="工站操作_生产申报" sheetId="28" r:id="rId29"/>
+    <sheet name="工站操作_不良申报" sheetId="29" r:id="rId30"/>
+    <sheet name="工站操作_缺料请求" sheetId="31" r:id="rId31"/>
+    <sheet name="工站操作_员工登入" sheetId="32" r:id="rId32"/>
+    <sheet name="工站操作_员工登出" sheetId="33" r:id="rId33"/>
+    <sheet name="工站操作_标签 补打" sheetId="35" r:id="rId34"/>
+    <sheet name="工站操作_打印标签" sheetId="34" r:id="rId35"/>
+    <sheet name="看板" sheetId="50" r:id="rId36"/>
+    <sheet name="看板_bak" sheetId="4" r:id="rId37"/>
+    <sheet name="追溯查询" sheetId="8" r:id="rId38"/>
+    <sheet name="报表_工单查询" sheetId="36" r:id="rId39"/>
+    <sheet name="报表_生产统计" sheetId="41" r:id="rId40"/>
+    <sheet name="报表_生产效率分析" sheetId="42" r:id="rId41"/>
+    <sheet name="报表_工时统计" sheetId="43" r:id="rId42"/>
+    <sheet name="报表_工艺分析" sheetId="44" r:id="rId43"/>
+    <sheet name="报表_产能分析" sheetId="46" r:id="rId44"/>
+    <sheet name="安灯工站操作" sheetId="48" state="hidden" r:id="rId45"/>
+    <sheet name="专家系统配置" sheetId="49" r:id="rId46"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="630">
   <si>
     <t>帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2370,55 +2371,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TABLENAME:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OKQTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGQTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OQTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMENO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETLPRDSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.Parameters["start"]=起始时间，必须传递, 格式: yyyy/MM/dd HH:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.Parameters["end"]=截止时间，必须传递, 格式: yyyy/MM/dd HH:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMBYTUNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SUMBYPN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TABLENAME:</t>
+    <t>强制解除?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUMBYTUNIT</t>
+    <t>子件清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PARTNO</t>
+    <t>序列号/批次号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OKQTY</t>
+    <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NGQTY</t>
+    <t>详详细细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IQTY</t>
+    <t>A334</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OQTY</t>
+    <t>ssdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK数</t>
+    <t>ssdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不良数</t>
+    <t>重用数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投入数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMENO</t>
+    <t>报废数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2426,20 +2487,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间序号</t>
+    <t>A323</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request.Parameters["start"]=起始时间，必须传递</t>
+    <t>32sdw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request.Parameters["end"]=截止时间，必须传递</t>
+    <t>edfdw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GETLPRDSUM</t>
+    <t>erer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op11</t>
+  </si>
+  <si>
+    <t>op12</t>
+  </si>
+  <si>
+    <t>op13</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3253,6 +3327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3376,6 +3459,12 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8526,6 +8615,1455 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8753475" y="2362200"/>
+          <a:ext cx="638175" cy="1266826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429749" y="3238500"/>
+          <a:ext cx="5076825" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>报废指令：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RWKComp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.ClientId=LineID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>扫描的条码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["sns"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上面扫描的条码（序列号或者托盘号等）。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["comppn"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子件料号，对应上面的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>COMPPartNo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["reuse"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入的重用数量 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["scrap"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入的报废数量 </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857252</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1543052" y="714375"/>
+          <a:ext cx="6419848" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="38100"/>
+          <a:ext cx="3790950" cy="1981199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指令请求，获取清单：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RUNDBCMD:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GetWIPCOMPS; Request.ClientId=LineId;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>扫描的条码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回： </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TABLENAME: SUBCOMPS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>呈现在下面的子件清单区</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OPNO: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        COMPPARTNO:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>料号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COMPDESC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：描述</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COMPSN:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>序列号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>批次号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QTY: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7972425" y="2314575"/>
+          <a:ext cx="1476374" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448799" y="2466974"/>
+          <a:ext cx="3933825" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>提交按钮，针对每行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 点击按钮即可以调用指令</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>注意只能针对单行操作 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239001" y="2143126"/>
+          <a:ext cx="723900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239001" y="2476501"/>
+          <a:ext cx="723900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239001" y="2800351"/>
+          <a:ext cx="723900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248526" y="3105151"/>
+          <a:ext cx="723900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6924675" y="2305050"/>
+          <a:ext cx="47626" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="3857624"/>
+          <a:ext cx="1171575" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>预设都填写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7629525" y="2305050"/>
+          <a:ext cx="47626" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="3838574"/>
+          <a:ext cx="1171575" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>预设都填写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -8705,6 +10243,14 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>值。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["Forced"]="Y"</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8943,13 +10489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -8961,7 +10507,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3695699" y="2171700"/>
+          <a:off x="4562474" y="2171700"/>
           <a:ext cx="104775" cy="104775"/>
           <a:chOff x="6410325" y="2562225"/>
           <a:chExt cx="647700" cy="647700"/>
@@ -9085,13 +10631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -9103,7 +10649,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3686174" y="2324100"/>
+          <a:off x="4552949" y="2324100"/>
           <a:ext cx="104775" cy="104775"/>
           <a:chOff x="6410325" y="2562225"/>
           <a:chExt cx="647700" cy="647700"/>
@@ -9227,13 +10773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -9245,7 +10791,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3686174" y="2495550"/>
+          <a:off x="4552949" y="2495550"/>
           <a:ext cx="104775" cy="104775"/>
           <a:chOff x="6410325" y="2562225"/>
           <a:chExt cx="647700" cy="647700"/>
@@ -9369,13 +10915,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -9387,7 +10933,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3695699" y="2667000"/>
+          <a:off x="4562474" y="2667000"/>
           <a:ext cx="104775" cy="104775"/>
           <a:chOff x="6410325" y="2562225"/>
           <a:chExt cx="647700" cy="647700"/>
@@ -9511,13 +11057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -9660,10 +11206,578 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3905249" y="2162175"/>
+          <a:ext cx="104775" cy="104775"/>
+          <a:chOff x="6410325" y="2562225"/>
+          <a:chExt cx="647700" cy="647700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="2562225"/>
+            <a:ext cx="647700" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Straight Connector 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6438900" y="2600325"/>
+            <a:ext cx="619125" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Straight Connector 31"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6419850" y="2571750"/>
+            <a:ext cx="628650" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3895724" y="2314575"/>
+          <a:ext cx="104775" cy="104775"/>
+          <a:chOff x="6410325" y="2562225"/>
+          <a:chExt cx="647700" cy="647700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rectangle 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="2562225"/>
+            <a:ext cx="647700" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Straight Connector 34"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6438900" y="2600325"/>
+            <a:ext cx="619125" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Straight Connector 35"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6419850" y="2571750"/>
+            <a:ext cx="628650" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="Group 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3895724" y="2486025"/>
+          <a:ext cx="104775" cy="104775"/>
+          <a:chOff x="6410325" y="2562225"/>
+          <a:chExt cx="647700" cy="647700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="2562225"/>
+            <a:ext cx="647700" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="Straight Connector 38"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6438900" y="2600325"/>
+            <a:ext cx="619125" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="Straight Connector 39"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6419850" y="2571750"/>
+            <a:ext cx="628650" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3905249" y="2657475"/>
+          <a:ext cx="104775" cy="104775"/>
+          <a:chOff x="6410325" y="2562225"/>
+          <a:chExt cx="647700" cy="647700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Rectangle 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="2562225"/>
+            <a:ext cx="647700" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Straight Connector 42"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6438900" y="2600325"/>
+            <a:ext cx="619125" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Straight Connector 43"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6419850" y="2571750"/>
+            <a:ext cx="628650" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10450,7 +12564,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12341,7 +14455,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17343,7 +19457,730 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="1219200"/>
+          <a:ext cx="628650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1209675"/>
+          <a:ext cx="676275" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>载入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11010900" y="371475"/>
+          <a:ext cx="1400176" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="209549"/>
+          <a:ext cx="2619375" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>简化界面，不设置主子表。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我后台保存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可以考虑用请求指令模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>虽然不是主子表，要注意锁定关联字段，保证主子关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2762251" y="1323975"/>
+          <a:ext cx="1743074" cy="300037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="933450"/>
+          <a:ext cx="2619375" cy="1381124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可以请求指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RUNDBCMD: SVBOMH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Client=Null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.EntityId=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>料号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["pn"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>料号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["desc"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Request.Parameters["rt"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工艺路线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Request.Parameters["spec"]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工艺参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="876300" y="504825"/>
+          <a:ext cx="7086600" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4333875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6953250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="171450"/>
+          <a:ext cx="2619375" cy="1381124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表结构：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ENG_BOMHEADER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     PARTNO,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 料号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     DESCRIPTION,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 名称</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     RT_NAME,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 工艺路线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     DEFAULT_CONFNAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，工艺参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表结构：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ENG_BOMDETAIL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17626,730 +20463,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="1219200"/>
-          <a:ext cx="628650" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>保存</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="1209675"/>
-          <a:ext cx="676275" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>载入</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11010900" y="371475"/>
-          <a:ext cx="1400176" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10153650" y="209549"/>
-          <a:ext cx="2619375" cy="1857375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>简化界面，不设置主子表。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>我后台保存</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>可以考虑用请求指令模式</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>保存完成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>虽然不是主子表，要注意锁定关联字段，保证主子关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2762251" y="1323975"/>
-          <a:ext cx="1743074" cy="300037"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3924300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4505325" y="933450"/>
-          <a:ext cx="2619375" cy="1381124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>可以请求指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RUNDBCMD: SVBOMH</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Client=Null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.EntityId=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>料号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["pn"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>料号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["desc"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>名称</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Request.Parameters["rt"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>工艺路线</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Request.Parameters["spec"]=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>工艺参数</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4762500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="876300" y="504825"/>
-          <a:ext cx="7086600" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4333875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6953250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="171450"/>
-          <a:ext cx="2619375" cy="1381124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>表结构：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ENG_BOMHEADER</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     PARTNO,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 料号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     DESCRIPTION,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 名称</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     RT_NAME,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> 工艺路线</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     DEFAULT_CONFNAME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，工艺参数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>表结构：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ENG_BOMDETAIL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18950,7 +21064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19781,7 +21895,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19850,7 +21964,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19922,7 +22036,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23795,7 +25909,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27141,7 +29255,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31099,7 +33213,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31777,7 +33891,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -41741,20 +43855,20 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="82" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
@@ -41763,32 +43877,32 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -41808,16 +43922,16 @@
       <c r="N5" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F10" s="2"/>
@@ -41830,16 +43944,16 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F14" s="2"/>
@@ -41852,21 +43966,21 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="2"/>
@@ -41879,74 +43993,74 @@
       <c r="H20" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="82"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="85"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="88"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="85"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="88"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -41986,17 +44100,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="79"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="9"/>
       <c r="N2" s="7"/>
     </row>
@@ -42004,15 +44118,15 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="79"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="9"/>
       <c r="N3" s="7"/>
     </row>
@@ -42020,15 +44134,15 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="79"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
@@ -42113,132 +44227,132 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
@@ -42337,79 +44451,79 @@
       <c r="N22" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -42899,16 +45013,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -42916,16 +45030,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -43019,16 +45133,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -43036,16 +45150,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -43105,18 +45219,18 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
@@ -43125,32 +45239,32 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -43170,373 +45284,373 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="78" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="78" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
     </row>
     <row r="26" spans="1:14" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C43" s="16"/>
@@ -43826,10 +45940,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="34"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="34" t="s">
@@ -43880,34 +45994,34 @@
       <c r="F18" s="34"/>
     </row>
     <row r="21" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
     </row>
     <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -43945,8 +46059,8 @@
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -43955,8 +46069,8 @@
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -43965,8 +46079,8 @@
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -43998,7 +46112,7 @@
   </sheetPr>
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -44019,32 +46133,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -44052,34 +46166,34 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
     </row>
     <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -44126,32 +46240,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -44166,34 +46280,34 @@
     <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
@@ -44217,10 +46331,237 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:G29"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+    </row>
+    <row r="9" spans="2:13" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="100"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="101"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="E15" s="120"/>
+      <c r="F15" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="106"/>
+      <c r="H15" s="77" t="s">
+        <v>613</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>614</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>619</v>
+      </c>
+      <c r="K15" s="77" t="s">
+        <v>620</v>
+      </c>
+      <c r="L15" s="119" t="s">
+        <v>373</v>
+      </c>
+      <c r="M15" s="119"/>
+    </row>
+    <row r="16" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="30">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="F16" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="G16" s="96"/>
+      <c r="H16" s="76" t="s">
+        <v>616</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+    </row>
+    <row r="17" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="30">
+        <v>343</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="G17" s="96"/>
+      <c r="H17" s="76" t="s">
+        <v>617</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+    </row>
+    <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="30">
+        <v>43</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="G18" s="96"/>
+      <c r="H18" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="I18" s="28">
+        <v>1</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
+    </row>
+    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="F19" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="76">
+        <v>343</v>
+      </c>
+      <c r="I19" s="28">
+        <v>3</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
+    </row>
+    <row r="22" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B8:F11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44232,137 +46573,144 @@
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="33" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-    </row>
-    <row r="8" spans="2:7" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
-    </row>
-    <row r="9" spans="2:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
-    </row>
-    <row r="10" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="2:8" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
+    </row>
+    <row r="9" spans="2:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="102" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" t="s">
+      <c r="F14" s="106"/>
+      <c r="G14" s="77" t="s">
+        <v>611</v>
+      </c>
+      <c r="H14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
         <v>564</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="71"/>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="95" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="93"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="96"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
         <v>565</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="71"/>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="F16" s="93"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="96"/>
+      <c r="G16" s="75"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="30" t="s">
         <v>566</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="95" t="s">
         <v>570</v>
       </c>
-      <c r="F17" s="93"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="96"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
         <v>567</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="95" t="s">
         <v>571</v>
       </c>
-      <c r="F18" s="93"/>
-    </row>
-    <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91" t="s">
+      <c r="F18" s="96"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+    </row>
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>341</v>
       </c>
@@ -44385,7 +46733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -44413,32 +46761,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -44453,34 +46801,34 @@
     <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
@@ -44499,14 +46847,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
@@ -44533,7 +46881,7 @@
       <c r="A3" t="s">
         <v>455</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="107" t="s">
         <v>572</v>
       </c>
       <c r="C3" t="s">
@@ -44541,16 +46889,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="105"/>
+      <c r="B4" s="108"/>
       <c r="C4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="105"/>
+      <c r="B5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -44705,7 +47053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -44726,17 +47074,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="79"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="9"/>
       <c r="N2" s="7"/>
     </row>
@@ -44744,15 +47092,15 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="79"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="9"/>
       <c r="N3" s="7"/>
     </row>
@@ -44760,15 +47108,15 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="79"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="10" t="s">
         <v>9</v>
       </c>
@@ -44793,35 +47141,35 @@
     <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -45070,79 +47418,79 @@
       <c r="N22" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -45173,7 +47521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -45215,38 +47563,38 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="H7" s="91" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="H7" s="94" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="H8" s="109"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="H8" s="112"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="H9" s="109"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="H9" s="112"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="H10" s="109"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="H10" s="112"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -45257,12 +47605,12 @@
       <c r="B15" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="28" t="s">
         <v>361</v>
       </c>
@@ -45274,10 +47622,10 @@
       <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
@@ -45285,10 +47633,10 @@
       <c r="B17" s="28">
         <v>2</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
@@ -45296,10 +47644,10 @@
       <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
@@ -45316,113 +47664,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C15:F15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:F27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-    </row>
-    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
-    </row>
-    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:F10"/>
-    <mergeCell ref="B19:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45664,6 +47905,113 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
+  <dimension ref="B2:F27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
+    </row>
+    <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:F10"/>
+    <mergeCell ref="B19:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -45772,10 +48120,10 @@
       <c r="L8" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="N8" s="112"/>
+      <c r="N8" s="115"/>
     </row>
     <row r="9" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
@@ -45837,7 +48185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -45892,16 +48240,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -45909,16 +48257,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -45957,7 +48305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -46012,16 +48360,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
@@ -46029,16 +48377,16 @@
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
@@ -46077,7 +48425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -46109,32 +48457,32 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -46143,37 +48491,37 @@
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
     </row>
     <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="H21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -46196,7 +48544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -46204,7 +48552,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46224,32 +48572,32 @@
     </row>
     <row r="6" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
@@ -46258,37 +48606,37 @@
     <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
     </row>
     <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="H21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -46311,7 +48659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -46336,15 +48684,15 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B1" s="65"/>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
@@ -46704,7 +49052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -46718,40 +49066,40 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
@@ -46926,7 +49274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -47000,7 +49348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -47015,227 +49363,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:T49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="16" max="17" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>576</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="Q8" s="13"/>
-      <c r="T8" s="74"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>577</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>578</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>588</v>
-      </c>
-      <c r="C26" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>592</v>
-      </c>
-      <c r="E36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>596</v>
-      </c>
-      <c r="E37" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E38" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E39" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D40" t="s">
-        <v>599</v>
-      </c>
-      <c r="E40" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D41" t="s">
-        <v>600</v>
-      </c>
-      <c r="E41" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>594</v>
-      </c>
-      <c r="E44" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>605</v>
-      </c>
-      <c r="E45" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
-        <v>597</v>
-      </c>
-      <c r="E46" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>598</v>
-      </c>
-      <c r="E47" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>599</v>
-      </c>
-      <c r="E48" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>600</v>
-      </c>
-      <c r="E49" t="s">
-        <v>604</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47529,20 +49656,222 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="16" max="17" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>472</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q8" s="13"/>
+      <c r="T8" s="74"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>592</v>
+      </c>
+      <c r="E36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>594</v>
+      </c>
+      <c r="E37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>595</v>
+      </c>
+      <c r="E38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>598</v>
+      </c>
+      <c r="E41" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>603</v>
+      </c>
+      <c r="E45" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>596</v>
+      </c>
+      <c r="E47" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>597</v>
+      </c>
+      <c r="E48" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>598</v>
+      </c>
+      <c r="E49" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47607,6 +49936,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
@@ -47619,7 +49967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P23"/>
   <sheetViews>
@@ -47634,14 +49982,14 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="118" t="s">
         <v>519</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="53"/>
@@ -47650,12 +49998,12 @@
       <c r="P7" s="53"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
@@ -47667,9 +50015,9 @@
       <c r="E11" t="s">
         <v>520</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="93"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="96"/>
       <c r="I11" t="s">
         <v>521</v>
       </c>
